--- a/room/src/main/resources/xml/TableModel.xlsx
+++ b/room/src/main/resources/xml/TableModel.xlsx
@@ -421,7 +421,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/room/src/main/resources/xml/TableModel.xlsx
+++ b/room/src/main/resources/xml/TableModel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,38 +37,6 @@
   </si>
   <si>
     <t>类型(1麻将2斗地主)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>watch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可观战人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruleValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,85 +386,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
